--- a/Tools/Luban/Datas/_Tables.xlsx
+++ b/Tools/Luban/Datas/_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\GameTemplate\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7674294-3365-45B7-A930-2C6E4336F51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5575EF6F-5535-4125-A515-75AD4D63A5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5808" yWindow="3291" windowWidth="17426" windowHeight="9052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,38 +104,31 @@
   </si>
   <si>
     <t>Constants</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Constants.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>one</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TbConstants</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,8 +138,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HarmonyOS Sans SC Medium"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Dream Han Sans J W18"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,12 +171,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -168,26 +190,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
+    <cellStyle name="浅灰" xfId="2" xr:uid="{19E5B3D8-048C-44BE-8902-CF2A83773FBB}"/>
+    <cellStyle name="深灰" xfId="1" xr:uid="{A418C15E-8502-4E1F-A736-2BDCE19C0E09}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,22 +505,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="32" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +535,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -510,90 +557,83 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
